--- a/testdaten/Firma1/Wahlvorstand_120_Personen.xlsx
+++ b/testdaten/Firma1/Wahlvorstand_120_Personen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_d12\MitbestimmIT\testdaten\Firma1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119EC47-09A8-4511-8DAF-7ABBCA8FD6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D7389-FF39-4945-B765-0A6BCE8796A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8430" yWindow="4020" windowWidth="38700" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Personalnummer</t>
   </si>
@@ -94,13 +94,22 @@
   </si>
   <si>
     <t>eMail</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Beerdigungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +124,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,13 +178,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,7 +395,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -402,92 +427,109 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>105060</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>815</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>105118</v>
+        <v>105060</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>105119</v>
+        <v>105118</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>105120</v>
+        <v>105119</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>105120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>105121</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25"/>
@@ -507,7 +549,7 @@
     <row r="24" x14ac:dyDescent="0.25"/>
     <row r="25" x14ac:dyDescent="0.25"/>
     <row r="26" x14ac:dyDescent="0.25"/>
-    <row r="1048482" x14ac:dyDescent="0.25"/>
+    <row r="27" x14ac:dyDescent="0.25"/>
     <row r="1048483" x14ac:dyDescent="0.25"/>
     <row r="1048484" x14ac:dyDescent="0.25"/>
     <row r="1048485" x14ac:dyDescent="0.25"/>
@@ -604,6 +646,6 @@
     <row r="1048576" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdaten/Firma1/Wahlvorstand_120_Personen.xlsx
+++ b/testdaten/Firma1/Wahlvorstand_120_Personen.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_d12\MitbestimmIT\testdaten\Firma1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D7389-FF39-4945-B765-0A6BCE8796A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D928A7-C637-4D3E-A632-C06342818553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="4020" windowWidth="38700" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="5520" windowWidth="38700" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Personalnummer</t>
   </si>
@@ -93,9 +104,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>eMail</t>
-  </si>
-  <si>
     <t>Doe</t>
   </si>
   <si>
@@ -103,13 +111,34 @@
   </si>
   <si>
     <t>Beerdigungen</t>
+  </si>
+  <si>
+    <t>GebDat</t>
+  </si>
+  <si>
+    <t>30.05.1982</t>
+  </si>
+  <si>
+    <t>11.09.1998</t>
+  </si>
+  <si>
+    <t>30.01.1986</t>
+  </si>
+  <si>
+    <t>02.01.1990</t>
+  </si>
+  <si>
+    <t>22.10.1990</t>
+  </si>
+  <si>
+    <t>17.03.1988</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +158,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -178,23 +213,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -405,9 +444,11 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,29 +464,32 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>815</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>815</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>105060</v>
       </c>
@@ -461,8 +505,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>105118</v>
       </c>
@@ -478,8 +525,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>105119</v>
       </c>
@@ -495,8 +545,11 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105120</v>
       </c>
@@ -512,8 +565,11 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>105121</v>
       </c>
@@ -529,16 +585,19 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25"/>
     <row r="17" x14ac:dyDescent="0.25"/>
     <row r="18" x14ac:dyDescent="0.25"/>
     <row r="19" x14ac:dyDescent="0.25"/>
